--- a/project-docs/A_Dokumente/Q1-Planung/Anforderungsanalyse.xlsx
+++ b/project-docs/A_Dokumente/Q1-Planung/Anforderungsanalyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noraasam/Documents/1) Studium WIF/6. Semester/SEP/Q1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA6A5803-B859-0941-B9DD-44A180037281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F4B368-1C1D-5B4A-B6E0-59AB7B99E9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1402,74 +1402,12 @@
     <t>Als Operator möchte ich das mir vorgeschlagene Bild ablehnen</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Als Operator möchte ich das mir vorgeschlagene Bild ablehnen,, um ein eigenes Foto aufnehmen und hochzuladen
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Anmerkungen:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>- Frontend: Es gibt einen Button, mit dem ich das vorgeschlagene Bild ablehnen kann
-- Es kann daraufhin ein eigenes Foto aufgenommen werden (#3)</t>
-    </r>
-  </si>
-  <si>
     <t>Verifiziere, dass, wenn für den betroffenen Fehlercode ein standardisiert Bild seitens KIEFEL vorhanden ist, dieses vorgeschlagen wird
 Verifiziere, dass das vorgeschlagene Bild abgelehnt werden kann
 Verifiziere, dass wenn das vorgeschlagene Bild abgelehnt wurde, ein Foto aufgenommen werden kann</t>
   </si>
   <si>
     <t>Als Operator möchte ich ein bereits aufgenommenes Foto des Maschinenfehlers aus meiner Galerie hochladen</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Als Operator möchte ich ein bereits aufgenommenes Foto des Maschinenfehlers aus meiner Galerie hochladen, um die Ursache des Produktionsstopps zeitnah nachträglich zu dokumentieren
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Anmerkungen:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>- Zugriff auf die Galerie des Endgerätes nötig
-- Frontend: Es existiert ein Button, um auf die Galerie des Endgerätes zugegriffen werden kann
-- Frontend: Es kann ein Foto aus der Galerie ausgewählt und in die Webapp hochgeladen werden
-- Metadaten des Fotos müssen gelesen werden -&gt; Überprüfung um zu verhindern das Fotos älter als 12 Stunden hochgeladen werden können (siehe [exif-js](https://github.com/exif-js/exif-js)
-- Backend: Der Zeitstempel des Uploads wird zwischengespeichert</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Verifiziere, dass ein Button vorhanden ist, um ein Foto aus der Galerie hochzuladen
@@ -1784,6 +1722,57 @@
   </si>
   <si>
     <t>US 18</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Als Operator möchte ich ein bereits aufgenommenes Foto des Maschinenfehlers aus meiner Galerie hochladen, um die Ursache des Produktionsstopps zeitnah nachträglich zu dokumentieren
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Anmerkungen:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>- Zugriff auf die Galerie des Endgerätes nötig
+- Frontend: Es existiert ein Button, um auf die Galerie des Endgerätes zugegriffen werden kann
+- Frontend: Es kann ein Foto aus der Galerie ausgewählt und in die Webapp hochgeladen werden
+- Metadaten des Fotos müssen gelesen werden -&gt; Überprüfung um zu verhindern das Fotos älter als 12 Stunden hochgeladen werden können (siehe [exif-js](https://github.com/exif-js/exif-js)
+- Backend: Der Zeitstempel des Uploads wird zwischengespeichert</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Als Operator möchte ich das mir vorgeschlagene Bild ablehnen,, um ein eigenes Foto aufnehmen und hochzuladen
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Anmerkungen:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>- Frontend: Es gibt einen Button, mit dem ich das vorgeschlagene Bild ablehnen kann
+- Es kann daraufhin ein eigenes Foto aufgenommen werden (US 3)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2449,8 +2438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2515,7 +2504,7 @@
     </row>
     <row r="2" spans="1:26" ht="180" x14ac:dyDescent="0.2">
       <c r="A2" s="60" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>9</v>
@@ -2544,7 +2533,7 @@
     </row>
     <row r="3" spans="1:26" ht="180" x14ac:dyDescent="0.2">
       <c r="A3" s="60" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>17</v>
@@ -2573,7 +2562,7 @@
     </row>
     <row r="4" spans="1:26" ht="210" x14ac:dyDescent="0.2">
       <c r="A4" s="60" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>21</v>
@@ -2602,7 +2591,7 @@
     </row>
     <row r="5" spans="1:26" ht="226" x14ac:dyDescent="0.2">
       <c r="A5" s="61" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>24</v>
@@ -2631,7 +2620,7 @@
     </row>
     <row r="6" spans="1:26" ht="241" x14ac:dyDescent="0.2">
       <c r="A6" s="60" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>28</v>
@@ -2660,7 +2649,7 @@
     </row>
     <row r="7" spans="1:26" ht="256" x14ac:dyDescent="0.2">
       <c r="A7" s="60" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B7" s="23" t="s">
         <v>31</v>
@@ -2689,7 +2678,7 @@
     </row>
     <row r="8" spans="1:26" ht="285" x14ac:dyDescent="0.2">
       <c r="A8" s="62" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>35</v>
@@ -2718,7 +2707,7 @@
     </row>
     <row r="9" spans="1:26" ht="370" x14ac:dyDescent="0.2">
       <c r="A9" s="60" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B9" s="23" t="s">
         <v>40</v>
@@ -2747,7 +2736,7 @@
     </row>
     <row r="10" spans="1:26" ht="108" x14ac:dyDescent="0.2">
       <c r="A10" s="60" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>43</v>
@@ -2776,7 +2765,7 @@
     </row>
     <row r="11" spans="1:26" ht="210" x14ac:dyDescent="0.2">
       <c r="A11" s="60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>46</v>
@@ -2805,7 +2794,7 @@
     </row>
     <row r="12" spans="1:26" ht="210" x14ac:dyDescent="0.2">
       <c r="A12" s="62" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>49</v>
@@ -2834,7 +2823,7 @@
     </row>
     <row r="13" spans="1:26" ht="90" x14ac:dyDescent="0.2">
       <c r="A13" s="63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>52</v>
@@ -2864,7 +2853,7 @@
     </row>
     <row r="14" spans="1:26" ht="285" x14ac:dyDescent="0.2">
       <c r="A14" s="64" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>55</v>
@@ -2894,7 +2883,7 @@
     </row>
     <row r="15" spans="1:26" ht="398" x14ac:dyDescent="0.2">
       <c r="A15" s="63" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>58</v>
@@ -2923,7 +2912,7 @@
     </row>
     <row r="16" spans="1:26" ht="135" x14ac:dyDescent="0.2">
       <c r="A16" s="65" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B16" s="40" t="s">
         <v>61</v>
@@ -2952,7 +2941,7 @@
     </row>
     <row r="17" spans="1:9" ht="150" x14ac:dyDescent="0.2">
       <c r="A17" s="60" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>65</v>
@@ -2981,7 +2970,7 @@
     </row>
     <row r="18" spans="1:9" ht="180" x14ac:dyDescent="0.2">
       <c r="A18" s="66" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B18" s="44" t="s">
         <v>68</v>
@@ -3008,7 +2997,7 @@
     </row>
     <row r="19" spans="1:9" ht="135" x14ac:dyDescent="0.2">
       <c r="A19" s="66" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B19" s="49" t="s">
         <v>72</v>
@@ -3035,7 +3024,7 @@
     </row>
     <row r="20" spans="1:9" ht="135" x14ac:dyDescent="0.2">
       <c r="A20" s="62" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B20" s="51" t="s">
         <v>75</v>
@@ -3062,7 +3051,7 @@
     </row>
     <row r="21" spans="1:9" ht="150" x14ac:dyDescent="0.2">
       <c r="A21" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B21" s="49" t="s">
         <v>78</v>
@@ -3089,7 +3078,7 @@
     </row>
     <row r="22" spans="1:9" ht="270" x14ac:dyDescent="0.2">
       <c r="A22" s="66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>81</v>
@@ -3116,7 +3105,7 @@
     </row>
     <row r="23" spans="1:9" ht="150" x14ac:dyDescent="0.2">
       <c r="A23" s="66" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B23" s="49" t="s">
         <v>85</v>
@@ -3143,7 +3132,7 @@
     </row>
     <row r="24" spans="1:9" ht="105" x14ac:dyDescent="0.2">
       <c r="A24" s="66" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B24" s="49" t="s">
         <v>89</v>
@@ -3170,19 +3159,19 @@
     </row>
     <row r="25" spans="1:9" ht="150" x14ac:dyDescent="0.2">
       <c r="A25" s="66" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B25" s="49" t="s">
         <v>92</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
       <c r="D25" s="46" t="s">
         <v>20</v>
       </c>
       <c r="E25" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F25" s="47" t="s">
         <v>71</v>
@@ -3197,19 +3186,19 @@
     </row>
     <row r="26" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" s="66" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="D26" s="46" t="s">
         <v>20</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F26" s="47" t="s">
         <v>71</v>
@@ -3224,19 +3213,19 @@
     </row>
     <row r="27" spans="1:9" ht="356" x14ac:dyDescent="0.2">
       <c r="A27" s="62" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D27" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F27" s="31" t="s">
         <v>38</v>
@@ -3251,19 +3240,19 @@
     </row>
     <row r="28" spans="1:9" ht="225" x14ac:dyDescent="0.2">
       <c r="A28" s="62" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D28" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F28" s="31" t="s">
         <v>38</v>
@@ -3278,19 +3267,19 @@
     </row>
     <row r="29" spans="1:9" ht="240" x14ac:dyDescent="0.2">
       <c r="A29" s="62" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D29" s="30" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F29" s="31" t="s">
         <v>38</v>
@@ -3305,13 +3294,13 @@
     </row>
     <row r="30" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="29" t="s">
         <v>107</v>
-      </c>
-      <c r="B30" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="29" t="s">
-        <v>109</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>20</v>
@@ -3321,20 +3310,20 @@
         <v>38</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A31" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="29" t="s">
         <v>111</v>
-      </c>
-      <c r="B31" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>113</v>
       </c>
       <c r="D31" s="30" t="s">
         <v>20</v>
@@ -3344,27 +3333,27 @@
         <v>38</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
     </row>
     <row r="32" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A32" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="55" t="s">
         <v>115</v>
-      </c>
-      <c r="B32" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="55" t="s">
-        <v>117</v>
       </c>
       <c r="D32" s="56" t="s">
         <v>20</v>
       </c>
       <c r="E32" s="57"/>
       <c r="F32" s="58" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G32" s="59" t="s">
         <v>84</v>
@@ -3374,20 +3363,20 @@
     </row>
     <row r="33" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A33" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="55" t="s">
         <v>119</v>
-      </c>
-      <c r="B33" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="55" t="s">
-        <v>121</v>
       </c>
       <c r="D33" s="56" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="57"/>
       <c r="F33" s="58" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G33" s="59" t="s">
         <v>34</v>
@@ -3397,43 +3386,43 @@
     </row>
     <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A34" s="67" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="55" t="s">
         <v>122</v>
-      </c>
-      <c r="B34" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="55" t="s">
-        <v>124</v>
       </c>
       <c r="D34" s="56" t="s">
         <v>20</v>
       </c>
       <c r="E34" s="57"/>
       <c r="F34" s="58" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G34" s="59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H34" s="59"/>
       <c r="I34" s="59"/>
     </row>
     <row r="35" spans="1:9" ht="42" x14ac:dyDescent="0.2">
       <c r="A35" s="67" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="55" t="s">
         <v>125</v>
-      </c>
-      <c r="B35" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="C35" s="55" t="s">
-        <v>127</v>
       </c>
       <c r="D35" s="56" t="s">
         <v>20</v>
       </c>
       <c r="E35" s="57"/>
       <c r="F35" s="58" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G35" s="59" t="s">
         <v>84</v>
@@ -3443,20 +3432,20 @@
     </row>
     <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A36" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="55" t="s">
         <v>128</v>
-      </c>
-      <c r="B36" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="C36" s="55" t="s">
-        <v>130</v>
       </c>
       <c r="D36" s="56" t="s">
         <v>20</v>
       </c>
       <c r="E36" s="57"/>
       <c r="F36" s="58" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G36" s="59" t="s">
         <v>34</v>
